--- a/natmiOut/OldD4/LR-pairs_lrc2p/Rspo2-Lgr4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Rspo2-Lgr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.63624103733127</v>
+        <v>1.876175666666667</v>
       </c>
       <c r="H2">
-        <v>1.63624103733127</v>
+        <v>5.628527</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.57377230838468</v>
+        <v>1.574348666666667</v>
       </c>
       <c r="N2">
-        <v>1.57377230838468</v>
+        <v>4.723046</v>
       </c>
       <c r="O2">
-        <v>0.09435565729046659</v>
+        <v>0.0919647296207302</v>
       </c>
       <c r="P2">
-        <v>0.09435565729046659</v>
+        <v>0.107609035279699</v>
       </c>
       <c r="Q2">
-        <v>2.575070834394576</v>
+        <v>2.953754659249111</v>
       </c>
       <c r="R2">
-        <v>2.575070834394576</v>
+        <v>26.583791933242</v>
       </c>
       <c r="S2">
-        <v>0.09435565729046659</v>
+        <v>0.0919647296207302</v>
       </c>
       <c r="T2">
-        <v>0.09435565729046659</v>
+        <v>0.107609035279699</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +593,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.63624103733127</v>
+        <v>1.876175666666667</v>
       </c>
       <c r="H3">
-        <v>1.63624103733127</v>
+        <v>5.628527</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +611,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.69619695323753</v>
+        <v>7.791016</v>
       </c>
       <c r="N3">
-        <v>7.69619695323753</v>
+        <v>23.373048</v>
       </c>
       <c r="O3">
-        <v>0.4614261658377789</v>
+        <v>0.4551080043963893</v>
       </c>
       <c r="P3">
-        <v>0.4614261658377789</v>
+        <v>0.532527345028208</v>
       </c>
       <c r="Q3">
-        <v>12.59283328627114</v>
+        <v>14.61731463781067</v>
       </c>
       <c r="R3">
-        <v>12.59283328627114</v>
+        <v>131.555831740296</v>
       </c>
       <c r="S3">
-        <v>0.4614261658377789</v>
+        <v>0.4551080043963893</v>
       </c>
       <c r="T3">
-        <v>0.4614261658377789</v>
+        <v>0.532527345028208</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +655,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.63624103733127</v>
+        <v>1.876175666666667</v>
       </c>
       <c r="H4">
-        <v>1.63624103733127</v>
+        <v>5.628527</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +673,96 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>7.40918229724981</v>
+        <v>0.2873323333333334</v>
       </c>
       <c r="N4">
-        <v>7.40918229724981</v>
+        <v>0.861997</v>
       </c>
       <c r="O4">
-        <v>0.4442181768717544</v>
+        <v>0.01678436353126363</v>
       </c>
       <c r="P4">
-        <v>0.4442181768717544</v>
+        <v>0.01963958546751285</v>
       </c>
       <c r="Q4">
-        <v>12.12320812782851</v>
+        <v>0.5390859320465556</v>
       </c>
       <c r="R4">
-        <v>12.12320812782851</v>
+        <v>4.851773388419</v>
       </c>
       <c r="S4">
-        <v>0.4442181768717544</v>
+        <v>0.01678436353126363</v>
       </c>
       <c r="T4">
-        <v>0.4442181768717544</v>
+        <v>0.01963958546751285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.876175666666667</v>
+      </c>
+      <c r="H5">
+        <v>5.628527</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>7.4663515</v>
+      </c>
+      <c r="N5">
+        <v>14.932703</v>
+      </c>
+      <c r="O5">
+        <v>0.436142902451617</v>
+      </c>
+      <c r="P5">
+        <v>0.3402240342245802</v>
+      </c>
+      <c r="Q5">
+        <v>14.00818700308017</v>
+      </c>
+      <c r="R5">
+        <v>84.049122018481</v>
+      </c>
+      <c r="S5">
+        <v>0.436142902451617</v>
+      </c>
+      <c r="T5">
+        <v>0.3402240342245802</v>
       </c>
     </row>
   </sheetData>
